--- a/src/example.xlsx
+++ b/src/example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\OpenServer\domains\localhost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\PDF-Ticket\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58145174-E2EE-4EAC-9B09-DFF6FBDCDC99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1B494D-4227-479F-AC7D-81B266A30A8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,13 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
-  <si>
-    <t>Участники</t>
-  </si>
-  <si>
-    <t>28.02.2021 — 28.02.2021</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Интерткань-2021 Бэйдж Участника</t>
   </si>
@@ -73,6 +67,15 @@
   </si>
   <si>
     <t>Шамоева Диана Омаровна</t>
+  </si>
+  <si>
+    <t>Barcode</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Company</t>
   </si>
 </sst>
 </file>
@@ -127,12 +130,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -499,141 +499,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D2" sqref="D2:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="10" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="45.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18" style="9" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="45.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="D8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
